--- a/Container/Data/KlimaDatensatz.xlsx
+++ b/Container/Data/KlimaDatensatz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xufe\Dropbox\Rpg\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xufe\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282A2E6C-3425-4375-91C7-7F64BDFA85E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894FBFBF-A221-401B-8341-63C744D8F9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B16964B-75C2-488F-8F5B-51B780CE2B46}"/>
   </bookViews>
@@ -554,10 +554,10 @@
   <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomRight" activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -3376,6 +3376,9 @@
         <v>0</v>
       </c>
       <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
         <v>1</v>
       </c>
       <c r="R35">
@@ -3415,7 +3418,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -3455,6 +3458,9 @@
       </c>
       <c r="P36">
         <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
       </c>
       <c r="R36">
         <v>4</v>
@@ -3493,7 +3499,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -3533,6 +3539,9 @@
       </c>
       <c r="P37">
         <v>8</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
       </c>
       <c r="R37">
         <v>4</v>
@@ -7795,7 +7804,7 @@
         <v>6</v>
       </c>
       <c r="G90">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H90">
         <v>5</v>
@@ -8038,7 +8047,7 @@
         <v>7</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H93">
         <v>5</v>

--- a/Container/Data/KlimaDatensatz.xlsx
+++ b/Container/Data/KlimaDatensatz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xufe\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894FBFBF-A221-401B-8341-63C744D8F9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1424C625-37AC-42EA-8DD6-A72B57E16264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B16964B-75C2-488F-8F5B-51B780CE2B46}"/>
   </bookViews>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>Sandsturm</t>
-  </si>
-  <si>
-    <t>Sonnenschein</t>
-  </si>
-  <si>
-    <t>Wolken/Sonne</t>
   </si>
   <si>
     <t>Schneefall</t>
@@ -192,6 +186,12 @@
   </si>
   <si>
     <t>TemperaturNACHT SD</t>
+  </si>
+  <si>
+    <t>Leicht bewölkt</t>
+  </si>
+  <si>
+    <t>Klarer Himmel</t>
   </si>
 </sst>
 </file>
@@ -554,10 +554,10 @@
   <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O89" sqref="O89"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,28 +583,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>52</v>
-      </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -616,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O1" t="s">
         <v>7</v>
@@ -628,10 +628,10 @@
         <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T1" t="s">
         <v>9</v>
@@ -640,31 +640,31 @@
         <v>11</v>
       </c>
       <c r="V1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>15</v>
-      </c>
       <c r="Z1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C33" si="0">SUM(K2:Z2)</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="R2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S2">
         <v>4</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
@@ -819,14 +819,14 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -859,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="N4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4">
         <v>6</v>
@@ -900,14 +900,14 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -955,16 +955,16 @@
         <v>8</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V5">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="W5">
         <v>6</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1062,10 +1062,10 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -1305,10 +1305,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -1467,10 +1467,10 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1872,10 +1872,10 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -2034,10 +2034,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -2115,10 +2115,10 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -2277,10 +2277,10 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -2682,10 +2682,10 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -2925,10 +2925,10 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -3087,10 +3087,10 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -3168,10 +3168,10 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <f t="shared" ref="C34:C65" si="1">SUM(K34:Z34)</f>
@@ -3330,14 +3330,14 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -3385,7 +3385,7 @@
         <v>8</v>
       </c>
       <c r="S35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T35">
         <v>10</v>
@@ -3411,14 +3411,14 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -3492,14 +3492,14 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -3573,10 +3573,10 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -3654,10 +3654,10 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -3816,10 +3816,10 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -4059,10 +4059,10 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -4221,10 +4221,10 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -4383,10 +4383,10 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -4464,10 +4464,10 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -4545,10 +4545,10 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -4626,10 +4626,10 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -4707,10 +4707,10 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -4788,10 +4788,10 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -4869,10 +4869,10 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
@@ -4950,10 +4950,10 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
@@ -5031,10 +5031,10 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
@@ -5112,10 +5112,10 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
@@ -5274,10 +5274,10 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
@@ -5355,10 +5355,10 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
@@ -5436,10 +5436,10 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
@@ -5517,10 +5517,10 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
@@ -5679,10 +5679,10 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
@@ -5760,10 +5760,10 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
@@ -5841,10 +5841,10 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:C93" si="2">SUM(K66:Z66)</f>
@@ -5922,10 +5922,10 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
@@ -6003,10 +6003,10 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
@@ -6084,10 +6084,10 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
@@ -6165,10 +6165,10 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
@@ -6246,10 +6246,10 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
@@ -6327,10 +6327,10 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
@@ -6408,10 +6408,10 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C73">
         <f t="shared" si="2"/>
@@ -6489,10 +6489,10 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C74">
         <f t="shared" si="2"/>
@@ -6570,10 +6570,10 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C75">
         <f t="shared" si="2"/>
@@ -6651,10 +6651,10 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C76">
         <f t="shared" si="2"/>
@@ -6732,10 +6732,10 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C77">
         <f t="shared" si="2"/>
@@ -6813,14 +6813,14 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C78">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D78">
         <v>6</v>
@@ -6859,7 +6859,7 @@
         <v>8</v>
       </c>
       <c r="P78">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -6894,14 +6894,14 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C79">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -6934,13 +6934,13 @@
         <v>8</v>
       </c>
       <c r="N79">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O79">
         <v>12</v>
       </c>
       <c r="P79">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -6975,14 +6975,14 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C80">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -7015,7 +7015,7 @@
         <v>6</v>
       </c>
       <c r="N80">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O80">
         <v>11</v>
@@ -7056,14 +7056,14 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C81">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -7096,7 +7096,7 @@
         <v>4</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O81">
         <v>9</v>
@@ -7137,10 +7137,10 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C82">
         <f t="shared" si="2"/>
@@ -7218,10 +7218,10 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C83">
         <f t="shared" si="2"/>
@@ -7299,10 +7299,10 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C84">
         <f t="shared" si="2"/>
@@ -7380,10 +7380,10 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C85">
         <f t="shared" si="2"/>
@@ -7461,10 +7461,10 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C86">
         <f t="shared" si="2"/>
@@ -7542,10 +7542,10 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C87">
         <f t="shared" si="2"/>
@@ -7623,10 +7623,10 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C88">
         <f t="shared" si="2"/>
@@ -7704,10 +7704,10 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C89">
         <f t="shared" si="2"/>
@@ -7785,10 +7785,10 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C90">
         <f t="shared" si="2"/>
@@ -7866,10 +7866,10 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C91">
         <f t="shared" si="2"/>
@@ -7947,10 +7947,10 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C92">
         <f t="shared" si="2"/>
@@ -8028,10 +8028,10 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C93">
         <f t="shared" si="2"/>
